--- a/MachineLearningResults.xlsx
+++ b/MachineLearningResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Work\Dev10\Files\M11\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbartell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A35AEB-FC62-4FB0-B7DF-0FAA82839246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43D7D9F-475F-4505-834F-1F91FD6F8107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="255" windowWidth="23025" windowHeight="15555" xr2:uid="{7998154A-1CA8-4EDE-A4DB-2826F23EF272}"/>
+    <workbookView xWindow="16170" yWindow="2610" windowWidth="23235" windowHeight="17925" xr2:uid="{7998154A-1CA8-4EDE-A4DB-2826F23EF272}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
   <si>
     <t>Machine Learning Success</t>
   </si>
@@ -262,6 +262,45 @@
   </si>
   <si>
     <t>voting_1_MEANS_scaled_KNNImpute.model</t>
+  </si>
+  <si>
+    <t>random_forest_imputed_model.model</t>
+  </si>
+  <si>
+    <t>random_forest_imputed_allparams_model.model</t>
+  </si>
+  <si>
+    <t>{'bootstrap': True, 'criterion': 'squared_error', 'max_depth': None, 'max_features': 'auto', 'min_samples_leaf': 1, 'min_samples_split': 3, 'n_estimators': 1000}</t>
+  </si>
+  <si>
+    <t>All params</t>
+  </si>
+  <si>
+    <t>K-Nearest Neighbors</t>
+  </si>
+  <si>
+    <t>KNearestNeighbors_model.model</t>
+  </si>
+  <si>
+    <t>KNearestNeighbors_imputed_model.model</t>
+  </si>
+  <si>
+    <t>KNearestNeighbors_imputed_allparams_model.model</t>
+  </si>
+  <si>
+    <t>GridSearch with 5-fold CV on    
+'n_neighbors': [3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20],
+    'weights': ['uniform','distance'],
+    'p': [1,2]</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 3, 'p': 2, 'weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 11, 'p': 1, 'weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>{'n_neighbors': 7, 'p': 2, 'weights': 'distance'}</t>
   </si>
 </sst>
 </file>
@@ -660,13 +699,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AABEA5-81BB-43AA-A884-A249BDD9A4BC}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +715,7 @@
     <col min="6" max="7" width="26.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
   </cols>
@@ -1172,6 +1211,9 @@
       <c r="G17" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H17" s="1">
+        <v>0.91</v>
+      </c>
       <c r="J17" s="5">
         <v>0.193</v>
       </c>
@@ -1183,6 +1225,9 @@
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C18" s="4" t="s">
         <v>58</v>
       </c>
@@ -1198,6 +1243,9 @@
       <c r="G18" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H18" s="1">
+        <v>0.88</v>
+      </c>
       <c r="J18" s="5">
         <v>5.2999999999999999E-2</v>
       </c>
@@ -1205,149 +1253,146 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>47</v>
+        <v>71</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="J19" s="5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="5">
-        <v>-1.29</v>
-      </c>
-      <c r="I19" s="5">
-        <v>428.1</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="K19" s="5">
-        <v>327.24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>-0.28880687573488401</v>
+      </c>
+      <c r="K20" s="5">
+        <v>246.56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="5">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="I20" s="5">
-        <v>36.89</v>
-      </c>
-      <c r="J20" s="5">
-        <v>-0.55400000000000005</v>
-      </c>
-      <c r="K20" s="5">
-        <v>411.89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="I21" s="5">
-        <v>33.6</v>
+      <c r="H21" s="1">
+        <v>1</v>
       </c>
       <c r="J21" s="5">
-        <v>4.5999999999999999E-3</v>
+        <v>7.8831760688702707E-2</v>
       </c>
       <c r="K21" s="5">
-        <v>404.62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>166.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>47</v>
+        <v>77</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="5">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="I22" s="5">
-        <v>35.729999999999997</v>
+      <c r="H22" s="1">
+        <v>1</v>
       </c>
       <c r="J22" s="5">
-        <v>-3.1300000000000001E-2</v>
+        <v>7.2350629134790803E-2</v>
       </c>
       <c r="K22" s="5">
-        <v>383.30599999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>167.43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>47</v>
@@ -1359,46 +1404,177 @@
         <v>18</v>
       </c>
       <c r="H23" s="5">
+        <v>-1.29</v>
+      </c>
+      <c r="I23" s="5">
+        <v>428.1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="K23" s="5">
+        <v>327.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="I24" s="5">
+        <v>36.89</v>
+      </c>
+      <c r="J24" s="5">
+        <v>-0.55400000000000005</v>
+      </c>
+      <c r="K24" s="5">
+        <v>411.89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="I25" s="5">
+        <v>33.6</v>
+      </c>
+      <c r="J25" s="5">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="K25" s="5">
+        <v>404.62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I26" s="5">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="J26" s="5">
+        <v>-3.1300000000000001E-2</v>
+      </c>
+      <c r="K26" s="5">
+        <v>383.30599999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="5">
         <v>0.77300000000000002</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I27" s="5">
         <v>42.46</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J27" s="5">
         <v>-0.66100000000000003</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K27" s="5">
         <v>440.077</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H28" s="5">
         <v>0.82</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I28" s="5">
         <v>113.34</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J28" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K28" s="5">
         <v>113.34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MachineLearningResults.xlsx
+++ b/MachineLearningResults.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbartell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43D7D9F-475F-4505-834F-1F91FD6F8107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA1A57F-2E78-409C-88F7-A49E99AE01A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16170" yWindow="2610" windowWidth="23235" windowHeight="17925" xr2:uid="{7998154A-1CA8-4EDE-A4DB-2826F23EF272}"/>
+    <workbookView xWindow="16170" yWindow="2610" windowWidth="23235" windowHeight="17925" activeTab="1" xr2:uid="{7998154A-1CA8-4EDE-A4DB-2826F23EF272}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sorted" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="82">
   <si>
     <t>Machine Learning Success</t>
   </si>
@@ -387,7 +388,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{305EA5BE-1AF2-481A-AAC8-B5BF8F8FE60B}"/>
   </tableStyles>
@@ -400,6 +457,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5DC8D3-BC33-4C86-BB86-F217180BDE12}" name="Table1" displayName="Table1" ref="A1:K26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:K26" xr:uid="{AF5DC8D3-BC33-4C86-BB86-F217180BDE12}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K26">
+    <sortCondition descending="1" ref="J1:J26"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{5B6F6D06-41D6-4BED-890D-86B01AFD0C0B}" name="Algorithm" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{B765DECF-FF03-4EFC-BDE2-1B4127DE6912}" name="Model Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{25426777-CD1B-43E4-BF18-11AAE7A2A44A}" name="Parameters" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{AFBC858B-1EC0-4B8E-8231-A0DC513F159D}" name="Tuning" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{E8D77309-0794-4D9B-B08B-DA7B945D03C6}" name="Data Used" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{56911C13-5CA3-42B9-81FE-59B8202986CF}" name="Imputation" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{257B58D8-D36E-4E91-97EF-66D293215140}" name="Scaling" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{4A94ED6D-BA78-444D-B490-DA67B50EFCE4}" name="R2 Training" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{1DEEFFAA-665C-4D6B-9589-39F665E92ED0}" name="MSE Training" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{0E04ED6A-C053-4609-B278-3522851D75B4}" name="R2 Test" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{73448B20-DB0A-44FC-BD2F-D1251C602D84}" name="MSE Test" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,11 +781,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AABEA5-81BB-43AA-A884-A249BDD9A4BC}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="A3:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,4 +1657,903 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07815516-4BD6-492F-AD9E-D9BFA42AC248}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="5">
+        <v>22.24</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="K2" s="5">
+        <v>22.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="I3" s="5">
+        <v>101.29</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="K3" s="5">
+        <v>87.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="I4" s="5">
+        <v>46.389000000000003</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="K4" s="5">
+        <v>110.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="9">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-1.29</v>
+      </c>
+      <c r="I6" s="5">
+        <v>428.1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="K6" s="5">
+        <v>327.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="K7" s="5">
+        <v>213.17699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="I8" s="5">
+        <v>69.52</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="K8" s="5">
+        <v>69.515000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
+        <v>0.193</v>
+      </c>
+      <c r="K9" s="5">
+        <v>154.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
+        <v>7.8831760688702707E-2</v>
+      </c>
+      <c r="K10" s="5">
+        <v>166.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
+        <v>7.2350629134790803E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <v>167.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K14" s="5">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K15" s="5">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="I16" s="5">
+        <v>113.34</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K16" s="5">
+        <v>113.339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="I17" s="5">
+        <v>113.34</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K17" s="5">
+        <v>113.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="I18" s="5">
+        <v>33.6</v>
+      </c>
+      <c r="J18" s="5">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="K18" s="5">
+        <v>404.62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="I19" s="5">
+        <v>82.03</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="K19" s="5">
+        <v>82.031000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I20" s="5">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="J20" s="5">
+        <v>-3.1300000000000001E-2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>383.30599999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.224</v>
+      </c>
+      <c r="I21" s="5">
+        <v>179.74</v>
+      </c>
+      <c r="J21" s="5">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="K21" s="5">
+        <v>179.739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I22" s="5">
+        <v>19.71</v>
+      </c>
+      <c r="J22" s="5">
+        <v>-0.25</v>
+      </c>
+      <c r="K22" s="5">
+        <v>239.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5">
+        <v>-0.28880687573488401</v>
+      </c>
+      <c r="K23" s="5">
+        <v>246.56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="5">
+        <v>-0.48</v>
+      </c>
+      <c r="I24" s="5">
+        <v>332.22399999999999</v>
+      </c>
+      <c r="J24" s="5">
+        <v>-0.37</v>
+      </c>
+      <c r="K24" s="5">
+        <v>332.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="I25" s="5">
+        <v>36.89</v>
+      </c>
+      <c r="J25" s="5">
+        <v>-0.55400000000000005</v>
+      </c>
+      <c r="K25" s="5">
+        <v>411.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="I26" s="5">
+        <v>42.46</v>
+      </c>
+      <c r="J26" s="5">
+        <v>-0.66100000000000003</v>
+      </c>
+      <c r="K26" s="5">
+        <v>440.077</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/MachineLearningResults.xlsx
+++ b/MachineLearningResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbartell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Work\Dev10\Files\M11\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA1A57F-2E78-409C-88F7-A49E99AE01A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704B74D2-0D49-4F72-8E93-074482F841EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16170" yWindow="2610" windowWidth="23235" windowHeight="17925" activeTab="1" xr2:uid="{7998154A-1CA8-4EDE-A4DB-2826F23EF272}"/>
+    <workbookView xWindow="255" yWindow="315" windowWidth="25575" windowHeight="15555" activeTab="1" xr2:uid="{7998154A-1CA8-4EDE-A4DB-2826F23EF272}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="94">
   <si>
     <t>Machine Learning Success</t>
   </si>
@@ -302,6 +302,48 @@
   </si>
   <si>
     <t>{'n_neighbors': 7, 'p': 2, 'weights': 'distance'}</t>
+  </si>
+  <si>
+    <t>learning_rate': 0.5, 'n_estimators': 100</t>
+  </si>
+  <si>
+    <t>learning_rate': 1.2, 'n_estimators': 100</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>GridSearch with 5-fold CV on   
+'n_estimators': [100, 500, 1000, 1500, 2000, 2500, 3000, 3500, 4000, 4500, 5000, 5500, 6000, 6500, 7000, 8500, 9000, 9500, 10000],
+    'max_features': ['auto', 'sqrt', 'log2'],
+    'max_depth': [7, 8, 9, 10, 11, 12, None],
+    'min_samples_split': [2, 3],
+    'min_samples_leaf': [1, 2],
+    'bootstrap': [True, False]</t>
+  </si>
+  <si>
+    <t>linear_SO2_scaled_dumpnulls.model</t>
+  </si>
+  <si>
+    <t>linear_SO2_scaled_KNNImpute.model</t>
+  </si>
+  <si>
+    <t>lasso_SO2_scaled_dumpnulls.model</t>
+  </si>
+  <si>
+    <t>lasso_SO2_scaled_KNNImpute.model</t>
+  </si>
+  <si>
+    <t>rf_opt_SO2_scaled_dumpnulls.model</t>
+  </si>
+  <si>
+    <t>rf_opt_SO2_scaled_KNNImpute.model</t>
+  </si>
+  <si>
+    <t>Not tested</t>
+  </si>
+  <si>
+    <t>'C': 10, 'degree': 2, 'gamma': 0.1, 'kernel': 'rbf'</t>
   </si>
 </sst>
 </file>
@@ -345,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -353,11 +395,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -384,33 +446,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -444,6 +499,28 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{305EA5BE-1AF2-481A-AAC8-B5BF8F8FE60B}"/>
@@ -460,23 +537,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5DC8D3-BC33-4C86-BB86-F217180BDE12}" name="Table1" displayName="Table1" ref="A1:K26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:K26" xr:uid="{AF5DC8D3-BC33-4C86-BB86-F217180BDE12}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K26">
-    <sortCondition descending="1" ref="J1:J26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5DC8D3-BC33-4C86-BB86-F217180BDE12}" name="Table1" displayName="Table1" ref="A1:K26" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K26" xr:uid="{AF5DC8D3-BC33-4C86-BB86-F217180BDE12}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Voting"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="All Ozone, PM25, and SO2 parameters"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K24">
+    <sortCondition ref="F1:F26"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5B6F6D06-41D6-4BED-890D-86B01AFD0C0B}" name="Algorithm" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{B765DECF-FF03-4EFC-BDE2-1B4127DE6912}" name="Model Name" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{25426777-CD1B-43E4-BF18-11AAE7A2A44A}" name="Parameters" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{AFBC858B-1EC0-4B8E-8231-A0DC513F159D}" name="Tuning" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{E8D77309-0794-4D9B-B08B-DA7B945D03C6}" name="Data Used" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{56911C13-5CA3-42B9-81FE-59B8202986CF}" name="Imputation" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{257B58D8-D36E-4E91-97EF-66D293215140}" name="Scaling" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{4A94ED6D-BA78-444D-B490-DA67B50EFCE4}" name="R2 Training" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{1DEEFFAA-665C-4D6B-9589-39F665E92ED0}" name="MSE Training" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{0E04ED6A-C053-4609-B278-3522851D75B4}" name="R2 Test" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{73448B20-DB0A-44FC-BD2F-D1251C602D84}" name="MSE Test" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5B6F6D06-41D6-4BED-890D-86B01AFD0C0B}" name="Algorithm" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B765DECF-FF03-4EFC-BDE2-1B4127DE6912}" name="Model Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{25426777-CD1B-43E4-BF18-11AAE7A2A44A}" name="Parameters" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{AFBC858B-1EC0-4B8E-8231-A0DC513F159D}" name="Tuning" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{E8D77309-0794-4D9B-B08B-DA7B945D03C6}" name="Data Used" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{56911C13-5CA3-42B9-81FE-59B8202986CF}" name="Imputation" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{257B58D8-D36E-4E91-97EF-66D293215140}" name="Scaling" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{4A94ED6D-BA78-444D-B490-DA67B50EFCE4}" name="R2 Training" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{1DEEFFAA-665C-4D6B-9589-39F665E92ED0}" name="MSE Training" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{0E04ED6A-C053-4609-B278-3522851D75B4}" name="R2 Test" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{73448B20-DB0A-44FC-BD2F-D1251C602D84}" name="MSE Test" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1661,28 +1749,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07815516-4BD6-492F-AD9E-D9BFA42AC248}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1717,7 +1806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1740,19 +1829,19 @@
         <v>18</v>
       </c>
       <c r="H2" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I2" s="5">
-        <v>22.24</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0.77300000000000002</v>
+        <v>0.94</v>
+      </c>
+      <c r="I2" s="14">
+        <v>14.34</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0.77700000000000002</v>
       </c>
       <c r="K2" s="5">
-        <v>22.24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+        <v>39.704000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1787,7 +1876,7 @@
         <v>87.79</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1822,7 +1911,7 @@
         <v>110.48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1853,7 +1942,7 @@
       </c>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1888,7 +1977,7 @@
         <v>327.24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1921,7 +2010,7 @@
         <v>213.17699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1929,7 +2018,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>29</v>
@@ -1944,19 +2033,19 @@
         <v>18</v>
       </c>
       <c r="H8" s="5">
-        <v>0.69</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="I8" s="5">
-        <v>69.52</v>
+        <v>35.54</v>
       </c>
       <c r="J8" s="5">
-        <v>0.21199999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="K8" s="5">
-        <v>69.515000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+        <v>58.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -1989,7 +2078,7 @@
         <v>154.31</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -2022,7 +2111,7 @@
         <v>166.26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
@@ -2055,7 +2144,7 @@
         <v>167.43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -2084,7 +2173,7 @@
       </c>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -2113,7 +2202,7 @@
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -2146,7 +2235,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>52</v>
       </c>
@@ -2179,42 +2268,42 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="5">
-        <v>0.51</v>
+        <v>-0.25</v>
       </c>
       <c r="I16" s="5">
-        <v>113.34</v>
+        <v>281.303</v>
       </c>
       <c r="J16" s="5">
-        <v>2.8000000000000001E-2</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="K16" s="5">
-        <v>113.339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+        <v>196.06700000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -2243,7 +2332,7 @@
         <v>113.34</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -2272,18 +2361,18 @@
         <v>404.62</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>22</v>
@@ -2295,19 +2384,19 @@
         <v>18</v>
       </c>
       <c r="H19" s="5">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="I19" s="5">
-        <v>82.03</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1.3999999999999999E-4</v>
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="I19" s="14">
+        <v>66.42</v>
+      </c>
+      <c r="J19" s="14">
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="K19" s="5">
-        <v>82.031000000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+        <v>185.18100000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -2342,18 +2431,18 @@
         <v>383.30599999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>22</v>
@@ -2365,19 +2454,19 @@
         <v>18</v>
       </c>
       <c r="H21" s="5">
-        <v>0.224</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="I21" s="5">
-        <v>179.74</v>
+        <v>100.63500000000001</v>
       </c>
       <c r="J21" s="5">
-        <v>-3.6999999999999998E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="K21" s="5">
-        <v>179.739</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+        <v>207.85400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -2412,7 +2501,7 @@
         <v>239.24</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
@@ -2445,42 +2534,42 @@
         <v>246.56</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H24" s="5">
-        <v>-0.48</v>
+        <v>0.748</v>
       </c>
       <c r="I24" s="5">
-        <v>332.22399999999999</v>
+        <v>58.25</v>
       </c>
       <c r="J24" s="5">
-        <v>-0.37</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="K24" s="5">
-        <v>332.22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -2515,7 +2604,7 @@
         <v>411.89</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -2550,10 +2639,217 @@
         <v>440.077</v>
       </c>
     </row>
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="I27" s="5">
+        <v>24.408999999999999</v>
+      </c>
+      <c r="J27" s="5">
+        <v>-0.55500000000000005</v>
+      </c>
+      <c r="K27" s="5">
+        <v>276.339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="I28" s="5">
+        <v>109.4999</v>
+      </c>
+      <c r="J28" s="5">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K28" s="5">
+        <v>164.01400000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="I29" s="5">
+        <v>177.66399999999999</v>
+      </c>
+      <c r="J29" s="5">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="K29" s="5">
+        <v>215.87200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="I30" s="5">
+        <v>210.68899999999999</v>
+      </c>
+      <c r="J30" s="5">
+        <v>-3.85E-2</v>
+      </c>
+      <c r="K30" s="5">
+        <v>187.44300000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/MachineLearningResults.xlsx
+++ b/MachineLearningResults.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Work\Dev10\Files\M11\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704B74D2-0D49-4F72-8E93-074482F841EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B142ACC4-E379-49BA-9D35-9F070B3FF900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="315" windowWidth="25575" windowHeight="15555" activeTab="1" xr2:uid="{7998154A-1CA8-4EDE-A4DB-2826F23EF272}"/>
+    <workbookView xWindow="11265" yWindow="3030" windowWidth="25575" windowHeight="15555" activeTab="1" xr2:uid="{7998154A-1CA8-4EDE-A4DB-2826F23EF272}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sorted" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sorted!$A$1:$K$44</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="115">
   <si>
     <t>Machine Learning Success</t>
   </si>
@@ -345,12 +348,75 @@
   <si>
     <t>'C': 10, 'degree': 2, 'gamma': 0.1, 'kernel': 'rbf'</t>
   </si>
+  <si>
+    <t>All Ozone, and PM25 parameters</t>
+  </si>
+  <si>
+    <t>'learning_rate': 0.8, 'n_estimators': 100</t>
+  </si>
+  <si>
+    <t>'learning_rate': 1.1, 'n_estimators': 100</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>linear_O_PM25_scaled_dumpnulls.model</t>
+  </si>
+  <si>
+    <t>linear_O_PM25_scaled_KNNImpute.model</t>
+  </si>
+  <si>
+    <t>lasso_O_PM25_scaled_dumpnulls.model</t>
+  </si>
+  <si>
+    <t>lasso_O_PM25_scaled_KNNImpute.model</t>
+  </si>
+  <si>
+    <t>'C': 4.5, 'degree': 2, 'gamma': 1, 'kernel': 'linear'</t>
+  </si>
+  <si>
+    <t>svr_opt_O_PM25_scaled_dumpnulls.model</t>
+  </si>
+  <si>
+    <t>svr_opt_O_PM25_scaled_KNNImpute.model</t>
+  </si>
+  <si>
+    <t>voting_1_O_PM25_scaled_dumpnulls.model</t>
+  </si>
+  <si>
+    <t>voting_1_O_PM25_scaled_KNNImpute.model</t>
+  </si>
+  <si>
+    <t>voting_2_O_PM25_scaled_dumpnulls.model</t>
+  </si>
+  <si>
+    <t>voting_2_O_PM25_scaled_KNNImpute.model</t>
+  </si>
+  <si>
+    <t>ABR_O_PM25_scaled_dumpnulls.model</t>
+  </si>
+  <si>
+    <t>svr_opt_O_PM25_scaled_dumpnulls.model and ABR_O_PM25_scaled_dumpnulls.model</t>
+  </si>
+  <si>
+    <t>ABR_O_PM25_scaled_dumpnulls.model,  svr_opt_O_PM25_scaled_dumpnulls.model, lasso_O_PM25_scaled_dumpnulls.model, and linear_O_PM25_scaled_dumpnulls.model</t>
+  </si>
+  <si>
+    <t>ABR_O_PM25_scaled_KNNImpute.model</t>
+  </si>
+  <si>
+    <t>svr_opt_O_PM25_scaled_KNNImpute.model and ABR_O_PM25_scaled_KNNImpute.model</t>
+  </si>
+  <si>
+    <t>ABR_O_PM25_scaled_KNNImpute.model, svr_opt_O_PM25_scaled_KNNImpute.model, linear_O_PM25_scaled_KNNImpute.model, and lasso_O_PM25_scaled_KNNImpute.model</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,8 +432,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,8 +460,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -415,11 +501,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -446,62 +673,98 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <b/>
@@ -514,12 +777,395 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -537,36 +1183,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5DC8D3-BC33-4C86-BB86-F217180BDE12}" name="Table1" displayName="Table1" ref="A1:K26" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K26" xr:uid="{AF5DC8D3-BC33-4C86-BB86-F217180BDE12}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Voting"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="All Ozone, PM25, and SO2 parameters"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K24">
-    <sortCondition ref="F1:F26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1840F543-E2A1-407C-91F7-E6B8967FAF86}" name="Table2" displayName="Table2" ref="A1:K44" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="13">
+  <autoFilter ref="A1:K44" xr:uid="{07815516-4BD6-492F-AD9E-D9BFA42AC248}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K44">
+    <sortCondition descending="1" ref="J1:J44"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5B6F6D06-41D6-4BED-890D-86B01AFD0C0B}" name="Algorithm" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{B765DECF-FF03-4EFC-BDE2-1B4127DE6912}" name="Model Name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{25426777-CD1B-43E4-BF18-11AAE7A2A44A}" name="Parameters" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{AFBC858B-1EC0-4B8E-8231-A0DC513F159D}" name="Tuning" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{E8D77309-0794-4D9B-B08B-DA7B945D03C6}" name="Data Used" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{56911C13-5CA3-42B9-81FE-59B8202986CF}" name="Imputation" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{257B58D8-D36E-4E91-97EF-66D293215140}" name="Scaling" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{4A94ED6D-BA78-444D-B490-DA67B50EFCE4}" name="R2 Training" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{1DEEFFAA-665C-4D6B-9589-39F665E92ED0}" name="MSE Training" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{0E04ED6A-C053-4609-B278-3522851D75B4}" name="R2 Test" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{73448B20-DB0A-44FC-BD2F-D1251C602D84}" name="MSE Test" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{75654D14-9B7F-44F8-93FC-B7438649D73B}" name="Algorithm" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{D9D29B3F-DDAA-42A7-A37A-47C2C8242F54}" name="Model Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{350D6B9D-A4F2-4551-8724-44ABE88817F9}" name="Parameters" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F1C0ABD5-C398-47FF-B285-8A34919B8CF4}" name="Tuning" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{8D030FEE-4DD5-4DEF-83FC-90AB7290D05E}" name="Data Used" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{1E84D778-8C17-4D63-9470-3801F1AFB435}" name="Imputation" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{3E726753-3340-4813-9828-169853EE755D}" name="Scaling" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{559091BE-6807-4484-96BF-4E8E7AAC3DC1}" name="R2 Training" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{93E63307-A954-4A57-B4AB-9F9C0D65287A}" name="MSE Training" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{7D1818E3-44D1-4243-B698-CFC97BB8B647}" name="R2 Test" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{06492BD3-4927-4F36-853F-5771256E24A1}" name="MSE Test" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1749,11 +2384,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07815516-4BD6-492F-AD9E-D9BFA42AC248}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I29" sqref="I29"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,1077 +2407,1491 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="21">
         <v>0.94</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I4" s="21">
         <v>14.34</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J4" s="21">
         <v>0.77700000000000002</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K4" s="22">
         <v>39.704000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="I5" s="12">
+        <v>35.54</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="K5" s="13">
+        <v>58.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="21">
+        <v>-0.25</v>
+      </c>
+      <c r="I6" s="21">
+        <v>281.303</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="K6" s="22">
+        <v>196.06700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="12">
         <v>0.56799999999999995</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I7" s="12">
         <v>101.29</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J7" s="14">
         <v>0.54100000000000004</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K7" s="13">
         <v>87.79</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="I8" s="12">
+        <v>77.457999999999998</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.497</v>
+      </c>
+      <c r="K8" s="13">
+        <v>76.143000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D9" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="21">
         <v>0.80200000000000005</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I9" s="21">
         <v>46.389000000000003</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J9" s="14">
         <v>0.42299999999999999</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K9" s="22">
         <v>110.48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0.315</v>
+      </c>
+      <c r="I10" s="12">
+        <v>165.16300000000001</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="K10" s="13">
+        <v>92.517499999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="I11" s="21">
+        <v>146.87200000000001</v>
+      </c>
+      <c r="J11" s="21">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="K11" s="22">
+        <v>96.721000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="12">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="9">
+      <c r="I12" s="12"/>
+      <c r="J12" s="15">
         <v>0.34499999999999997</v>
       </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B13" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="21">
+        <v>-0.28799999999999998</v>
+      </c>
+      <c r="I13" s="21">
+        <v>310</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="K13" s="22">
+        <v>318.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C14" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="21">
         <v>-1.29</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I14" s="21">
         <v>428.1</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J14" s="21">
         <v>0.28899999999999998</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K14" s="22">
         <v>327.24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H15" s="12">
         <v>0.20599999999999999</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12">
         <v>0.22700000000000001</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K15" s="13">
         <v>213.17699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
+    <row r="16" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0.91</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21">
+        <v>0.193</v>
+      </c>
+      <c r="K16" s="22">
+        <v>154.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="I17" s="12">
+        <v>125.705</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.17749999999999999</v>
+      </c>
+      <c r="K17" s="13">
+        <v>124.551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12">
+        <v>7.8831760688702707E-2</v>
+      </c>
+      <c r="K18" s="13">
+        <v>166.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="I8" s="5">
-        <v>35.54</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="K8" s="5">
-        <v>58.39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="G19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="21">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="I19" s="21">
+        <v>109.4999</v>
+      </c>
+      <c r="J19" s="21">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K19" s="22">
+        <v>164.01400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12">
+        <v>7.2350629134790803E-2</v>
+      </c>
+      <c r="K20" s="13">
+        <v>167.43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B23" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E23" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5">
-        <v>0.193</v>
-      </c>
-      <c r="K9" s="5">
-        <v>154.31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="F23" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5">
-        <v>7.8831760688702707E-2</v>
-      </c>
-      <c r="K10" s="5">
-        <v>166.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="G23" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="20">
+        <v>0.88</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K23" s="22">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5">
-        <v>7.2350629134790803E-2</v>
-      </c>
-      <c r="K11" s="5">
-        <v>167.43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5">
-        <v>5.5E-2</v>
-      </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="G24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="10">
         <v>0.88</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5">
+      <c r="I24" s="12"/>
+      <c r="J24" s="12">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K24" s="13">
         <v>43.4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="K15" s="5">
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21">
+        <v>0.82</v>
+      </c>
+      <c r="I25" s="21">
+        <v>113.34</v>
+      </c>
+      <c r="J25" s="21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K25" s="22">
+        <v>113.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="I26" s="12">
+        <v>33.6</v>
+      </c>
+      <c r="J26" s="12">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="K26" s="13">
+        <v>404.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="I27" s="21">
+        <v>100.63500000000001</v>
+      </c>
+      <c r="J27" s="21">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="K27" s="38">
+        <v>207.85400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="29">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="I28" s="29">
+        <v>66.42</v>
+      </c>
+      <c r="J28" s="29">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="K28" s="30">
+        <v>185.18100000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="25">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="I29" s="25">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="J29" s="25">
+        <v>-3.1300000000000001E-2</v>
+      </c>
+      <c r="K29" s="26">
+        <v>383.30599999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="5">
-        <v>-0.25</v>
-      </c>
-      <c r="I16" s="5">
-        <v>281.303</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="K16" s="5">
-        <v>196.06700000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="I17" s="5">
-        <v>113.34</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K17" s="5">
-        <v>113.34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="I18" s="5">
-        <v>33.6</v>
-      </c>
-      <c r="J18" s="5">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="K18" s="5">
-        <v>404.62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="I19" s="14">
-        <v>66.42</v>
-      </c>
-      <c r="J19" s="14">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="K19" s="5">
-        <v>185.18100000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="I20" s="5">
-        <v>35.729999999999997</v>
-      </c>
-      <c r="J20" s="5">
-        <v>-3.1300000000000001E-2</v>
-      </c>
-      <c r="K20" s="5">
-        <v>383.30599999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="I21" s="5">
-        <v>100.63500000000001</v>
-      </c>
-      <c r="J21" s="5">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="K21" s="5">
-        <v>207.85400000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="I22" s="5">
-        <v>19.71</v>
-      </c>
-      <c r="J22" s="5">
-        <v>-0.25</v>
-      </c>
-      <c r="K22" s="5">
-        <v>239.24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5">
-        <v>-0.28880687573488401</v>
-      </c>
-      <c r="K23" s="5">
-        <v>246.56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0.748</v>
-      </c>
-      <c r="I24" s="5">
-        <v>58.25</v>
-      </c>
-      <c r="J24" s="5">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="K24" s="5">
-        <v>187.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="I25" s="5">
-        <v>36.89</v>
-      </c>
-      <c r="J25" s="5">
-        <v>-0.55400000000000005</v>
-      </c>
-      <c r="K25" s="5">
-        <v>411.89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="I26" s="5">
-        <v>42.46</v>
-      </c>
-      <c r="J26" s="5">
-        <v>-0.66100000000000003</v>
-      </c>
-      <c r="K26" s="5">
-        <v>440.077</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="I27" s="5">
-        <v>24.408999999999999</v>
-      </c>
-      <c r="J27" s="5">
-        <v>-0.55500000000000005</v>
-      </c>
-      <c r="K27" s="5">
-        <v>276.339</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="I28" s="5">
-        <v>109.4999</v>
-      </c>
-      <c r="J28" s="5">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="K28" s="5">
-        <v>164.01400000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="I29" s="5">
-        <v>177.66399999999999</v>
-      </c>
-      <c r="J29" s="5">
-        <v>-0.19600000000000001</v>
-      </c>
-      <c r="K29" s="5">
-        <v>215.87200000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="28" t="s">
         <v>22</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="5">
+      <c r="G30" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="29">
         <v>0.09</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="29">
         <v>210.68899999999999</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="29">
         <v>-3.85E-2</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="30">
         <v>187.44300000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="11" t="s">
+    <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="29">
+        <v>0.09</v>
+      </c>
+      <c r="I31" s="29">
+        <v>210.68899999999999</v>
+      </c>
+      <c r="J31" s="29">
+        <v>-3.8600000000000002E-2</v>
+      </c>
+      <c r="K31" s="30">
+        <v>187.44300000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F32" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="34">
+        <v>0.748</v>
+      </c>
+      <c r="I32" s="34">
+        <v>58.25</v>
+      </c>
+      <c r="J32" s="34">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="K32" s="35">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="29">
+        <v>0.19139999999999999</v>
+      </c>
+      <c r="I33" s="29">
+        <v>187.31800000000001</v>
+      </c>
+      <c r="J33" s="29">
+        <v>-5.0900000000000001E-2</v>
+      </c>
+      <c r="K33" s="30">
+        <v>189.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="29">
+        <v>0.65569999999999995</v>
+      </c>
+      <c r="I34" s="29">
+        <v>79.751000000000005</v>
+      </c>
+      <c r="J34" s="29">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="K34" s="30">
+        <v>189.97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="25">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="I35" s="25">
+        <v>78.971000000000004</v>
+      </c>
+      <c r="J35" s="25">
+        <v>-0.06</v>
+      </c>
+      <c r="K35" s="26">
+        <v>191.32300000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="29">
+        <v>0.23</v>
+      </c>
+      <c r="I36" s="29">
+        <v>177.66399999999999</v>
+      </c>
+      <c r="J36" s="29">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="K36" s="30">
+        <v>215.87200000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="11" t="s">
+      <c r="G37" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="21">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I37" s="21">
+        <v>19.71</v>
+      </c>
+      <c r="J37" s="21">
+        <v>-0.25</v>
+      </c>
+      <c r="K37" s="22">
+        <v>239.24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12">
+        <v>-0.28880687573488401</v>
+      </c>
+      <c r="K38" s="13">
+        <v>246.56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="34">
+        <v>0.54</v>
+      </c>
+      <c r="I39" s="34">
+        <v>106.34</v>
+      </c>
+      <c r="J39" s="34">
+        <v>-0.28899999999999998</v>
+      </c>
+      <c r="K39" s="35">
+        <v>210.76499999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="34">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="I40" s="34">
+        <v>36.89</v>
+      </c>
+      <c r="J40" s="34">
+        <v>-0.55400000000000005</v>
+      </c>
+      <c r="K40" s="35">
+        <v>411.89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F41" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="I41" s="12">
+        <v>24.408999999999999</v>
+      </c>
+      <c r="J41" s="12">
+        <v>-0.55500000000000005</v>
+      </c>
+      <c r="K41" s="13">
+        <v>276.339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="21">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="I42" s="21">
+        <v>42.46</v>
+      </c>
+      <c r="J42" s="21">
+        <v>-0.66100000000000003</v>
+      </c>
+      <c r="K42" s="22">
+        <v>440.077</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>92</v>
+      <c r="G43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="12">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12">
+        <v>-62.697000000000003</v>
+      </c>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12">
+        <v>-362.23</v>
+      </c>
+      <c r="K44" s="13">
+        <v>76.143000000000001</v>
       </c>
     </row>
   </sheetData>
